--- a/Test Scenario Bhinneka.com.xlsx
+++ b/Test Scenario Bhinneka.com.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\SQA\MANUAL TESTING\Project Manual Testing\DUMMY PROJECT\Bhinneka.com_SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Project-Web-Test-Manual-Bhinneka.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1419D34-D7A8-42F1-BE84-0FB34047B926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B022A58C-61C0-4DF5-82A7-6CBD8BFBCBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73F2BAB7-53F2-4C8D-B7D4-E52FD059FD68}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
